--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A7626C-4A21-4EE6-B1E8-1DF8560C353E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C4CA67-A428-405F-9CE0-E989A9358365}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Player</t>
   </si>
@@ -61,6 +62,12 @@
   </si>
   <si>
     <t>avg old ELO(exclusive)</t>
+  </si>
+  <si>
+    <t>2 losers</t>
+  </si>
+  <si>
+    <t>3 losers</t>
   </si>
 </sst>
 </file>
@@ -387,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +408,7 @@
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,138 +424,191 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C2">
         <f>AVERAGE(B3:B8)</f>
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <f>8*(D2-1/(1+10^((B2-C2)/400)))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <f>40*(D2-1/(1+10^((C2-B2)/400)))</f>
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <f>E2/2</f>
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <f>E2/3</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C3">
         <f>AVERAGE(B2,B4:B8)</f>
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E8" si="0">8*(D3-1/(1+10^((B3-C3)/400)))</f>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f>40*(D3-1/(1+10^((C3-B3)/400)))</f>
+        <v>-20</v>
+      </c>
+      <c r="F3">
+        <f>E3/2</f>
+        <v>-10</v>
+      </c>
+      <c r="G3">
+        <f>E3/3</f>
+        <v>-6.666666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C4">
         <f>AVERAGE(B2:B3,B5:B8)</f>
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f>40*(D4-1/(1+10^((C4-B4)/400)))</f>
+        <v>-20</v>
+      </c>
+      <c r="F4">
+        <f>E4/2</f>
+        <v>-10</v>
+      </c>
+      <c r="G4">
+        <f>E4/3</f>
+        <v>-6.666666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C5">
         <f>AVERAGE(B2:B4,B6:B8)</f>
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f>40*(D5-1/(1+10^((C5-B5)/400)))</f>
+        <v>-20</v>
+      </c>
+      <c r="F5">
+        <f>E5/2</f>
+        <v>-10</v>
+      </c>
+      <c r="G5">
+        <f>E5/3</f>
+        <v>-6.666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
       <c r="C6">
         <f>AVERAGE(B2:B5,B7:B8)</f>
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f>40*(D6-1/(1+10^((C6-B6)/400)))</f>
+        <v>-0.12609236733040835</v>
+      </c>
+      <c r="F6">
+        <f>E6/2</f>
+        <v>-6.3046183665204175E-2</v>
+      </c>
+      <c r="G6">
+        <f>E6/3</f>
+        <v>-4.2030789110136114E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
       <c r="C7">
         <f>AVERAGE(B2:B6,B8)</f>
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f>40*(D7-1/(1+10^((C7-B7)/400)))</f>
+        <v>-0.12609236733040835</v>
+      </c>
+      <c r="F7">
+        <f>E7/2</f>
+        <v>-6.3046183665204175E-2</v>
+      </c>
+      <c r="G7">
+        <f>E7/3</f>
+        <v>-4.2030789110136114E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
       <c r="C8">
         <f>AVERAGE(B2:B7)</f>
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>-4</v>
+        <f>40*(D8-1/(1+10^((C8-B8)/400)))</f>
+        <v>-0.12609236733040835</v>
+      </c>
+      <c r="F8">
+        <f>E8/2</f>
+        <v>-6.3046183665204175E-2</v>
+      </c>
+      <c r="G8">
+        <f>E8/3</f>
+        <v>-4.2030789110136114E-2</v>
       </c>
     </row>
   </sheetData>
